--- a/figures_tables/ELISpot/ELISpot_P_ST3.xlsx
+++ b/figures_tables/ELISpot/ELISpot_P_ST3.xlsx
@@ -377,183 +377,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0 / 3</t>
+          <t>interval0 / interval3</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.440216377679409</v>
+        <v>0.440216</v>
       </c>
       <c r="C2">
-        <v>0.01312382025448944</v>
+        <v>0.013124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>interval0 / interval4</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.3373609996710205</v>
+        <v>0.337361</v>
       </c>
       <c r="C3">
-        <v>0.0002976833677752477</v>
+        <v>0.000298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>interval0 / interval6</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.2365141056414983</v>
+        <v>0.236514</v>
       </c>
       <c r="C4">
-        <v>2.3971332686612e-06</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>interval0 / interval8</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.2037766471685153</v>
+        <v>0.203777</v>
       </c>
       <c r="C5">
-        <v>1.363634494211396e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 / 3</t>
+          <t>interval1 / interval3</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.3329374661932155</v>
+        <v>0.332937</v>
       </c>
       <c r="C6">
-        <v>0.0008753565556168796</v>
+        <v>0.000875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>interval1 / interval4</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.2551475186247563</v>
+        <v>0.255148</v>
       </c>
       <c r="C7">
-        <v>1.328933658317766e-05</v>
+        <v>1.3e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>interval1 / interval6</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.1788765957921292</v>
+        <v>0.178877</v>
       </c>
       <c r="C8">
-        <v>1.60391153691819e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>interval1 / interval8</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.1541171206198124</v>
+        <v>0.154117</v>
       </c>
       <c r="C9">
-        <v>3.709587081957011e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>interval2 / interval4</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.48041878571069</v>
+        <v>0.480419</v>
       </c>
       <c r="C10">
-        <v>0.01206534737689047</v>
+        <v>0.012065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2 / 6</t>
+          <t>interval2 / interval6</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.3368078098729294</v>
+        <v>0.336808</v>
       </c>
       <c r="C11">
-        <v>1.295988949689963e-05</v>
+        <v>1.3e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>interval2 / interval8</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.2901880462897601</v>
+        <v>0.290188</v>
       </c>
       <c r="C12">
-        <v>5.38035565544881e-07</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>interval3 / interval6</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.5372678474351119</v>
+        <v>0.537268</v>
       </c>
       <c r="C13">
-        <v>0.01189060114658846</v>
+        <v>0.011891</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>interval3 / interval8</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.462901103867874</v>
+        <v>0.462901</v>
       </c>
       <c r="C14">
-        <v>0.0005817806196556363</v>
+        <v>0.0005820000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>interval4 / interval8</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.6040314303290223</v>
+        <v>0.604031</v>
       </c>
       <c r="C15">
-        <v>0.03713494914089155</v>
+        <v>0.037135</v>
       </c>
     </row>
   </sheetData>
